--- a/venv/Degistirilmis.xlsx
+++ b/venv/Degistirilmis.xlsx
@@ -544,14 +544,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>KARABÜK</t>
+          <t>İZMİR</t>
         </is>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
         <v>195</v>
@@ -584,7 +584,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>KARABÜK</t>
+          <t>DİYARBAKIR</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -624,14 +624,14 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>İZMİR</t>
+          <t>İSTANBUL</t>
         </is>
       </c>
       <c r="G5" t="n">
         <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
         <v>176</v>
@@ -664,14 +664,14 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>İZMİR</t>
+          <t>GİRESUN</t>
         </is>
       </c>
       <c r="G6" t="n">
         <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
         <v>176</v>
@@ -704,14 +704,14 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>İSTANBUL</t>
+          <t>DİYARBAKIR</t>
         </is>
       </c>
       <c r="G7" t="n">
         <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>182</v>
@@ -744,14 +744,14 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>DİYARBAKIR</t>
+          <t>GİRESUN</t>
         </is>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
         <v>195</v>
@@ -784,14 +784,14 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>GİRESUN</t>
+          <t>KARABÜK</t>
         </is>
       </c>
       <c r="G9" t="n">
         <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>176</v>
@@ -824,14 +824,14 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>GİRESUN</t>
+          <t>İZMİR</t>
         </is>
       </c>
       <c r="G10" t="n">
         <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
         <v>176</v>
@@ -864,7 +864,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>DİYARBAKIR</t>
+          <t>KARABÜK</t>
         </is>
       </c>
       <c r="G11" t="n">

--- a/venv/Degistirilmis.xlsx
+++ b/venv/Degistirilmis.xlsx
@@ -511,7 +511,7 @@
         <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>182</v>
@@ -544,14 +544,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>İZMİR</t>
+          <t>DİYARBAKIR</t>
         </is>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>195</v>
@@ -584,7 +584,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>DİYARBAKIR</t>
+          <t>KARABÜK</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -624,7 +624,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>İSTANBUL</t>
+          <t>GİRESUN</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -664,14 +664,14 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>GİRESUN</t>
+          <t>İZMİR</t>
         </is>
       </c>
       <c r="G6" t="n">
         <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
         <v>176</v>
@@ -704,14 +704,14 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>DİYARBAKIR</t>
+          <t>GİRESUN</t>
         </is>
       </c>
       <c r="G7" t="n">
         <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
         <v>182</v>
@@ -744,14 +744,14 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>GİRESUN</t>
+          <t>KARABÜK</t>
         </is>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>195</v>
@@ -784,7 +784,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>KARABÜK</t>
+          <t>DİYARBAKIR</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -864,7 +864,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>KARABÜK</t>
+          <t>İSTANBUL</t>
         </is>
       </c>
       <c r="G11" t="n">

--- a/venv/Degistirilmis.xlsx
+++ b/venv/Degistirilmis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,14 +504,14 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>İSTANBUL</t>
+          <t>GİRESUN</t>
         </is>
       </c>
       <c r="G2" t="n">
         <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
         <v>182</v>
@@ -544,7 +544,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>DİYARBAKIR</t>
+          <t>İSTANBUL</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -584,14 +584,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>KARABÜK</t>
+          <t>ORDU</t>
         </is>
       </c>
       <c r="G4" t="n">
         <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
         <v>176</v>
@@ -619,7 +619,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>GİRESUN</t>
+          <t>KARABÜK</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Özgün Aydın (z)</t>
+          <t>Hamza Ünal (y)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -659,25 +659,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>HAKKARİ</t>
+          <t>DİYARBAKIR</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>İZMİR</t>
+          <t>İSTANBUL</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="J6" t="n">
-        <v>507.58</v>
+        <v>800</v>
       </c>
     </row>
     <row r="7">
@@ -704,14 +704,14 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>GİRESUN</t>
+          <t>İZMİR</t>
         </is>
       </c>
       <c r="G7" t="n">
         <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
         <v>182</v>
@@ -729,7 +729,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Hamza Ünal (y)</t>
+          <t>Özgün Aydın (z)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -739,25 +739,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>DİYARBAKIR</t>
+          <t>KARABÜK</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>KARABÜK</t>
+          <t>İZMİR</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="J8" t="n">
-        <v>800</v>
+        <v>507.58</v>
       </c>
     </row>
     <row r="9">
@@ -769,7 +769,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Özgün Aydın (z)</t>
+          <t>Berkay Bengütaş (x)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -779,25 +779,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>KARABÜK</t>
+          <t>İSTANBUL</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>DİYARBAKIR</t>
+          <t>İZMİR</t>
         </is>
       </c>
       <c r="G9" t="n">
         <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="J9" t="n">
-        <v>507.58</v>
+        <v>969.73</v>
       </c>
     </row>
     <row r="10">
@@ -807,11 +807,7 @@
       <c r="B10" t="n">
         <v>11</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Özgün Aydın (z)</t>
-        </is>
-      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
           <t>İGU</t>
@@ -819,66 +815,24 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>GİRESUN</t>
+          <t>ÇANAKKALE</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>İZMİR</t>
+          <t>İSTANBUL</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>176</v>
-      </c>
-      <c r="J10" t="n">
-        <v>507.58</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>12</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Özgün Aydın (z)</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>İGU</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>HAKKARİ</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>İSTANBUL</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>3</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>176</v>
-      </c>
-      <c r="J11" t="n">
-        <v>507.58</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
